--- a/excel/M2-S3/M2-S3-MEFIM.xlsx
+++ b/excel/M2-S3/M2-S3-MEFIM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyVESPUCE\bulletin-espi\backend\excel\M2-S3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A28664B-0EAD-443D-AE5A-2A4EB647E779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B67DEA-4A0F-4748-BD77-FF8528514796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33795" yWindow="1995" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>UE 1 – Economie &amp; Gestion</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Gestion de Patrimoine</t>
+  </si>
+  <si>
+    <t>Appreciations</t>
   </si>
 </sst>
 </file>
@@ -628,18 +631,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA32"/>
+  <dimension ref="A1:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="19" max="19" width="16.5546875" customWidth="1"/>
+    <col min="28" max="28" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,8 +703,9 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
-    </row>
-    <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB1" s="3"/>
+    </row>
+    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -782,8 +787,11 @@
       <c r="AA2" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB2" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -811,8 +819,9 @@
       <c r="Y3" s="12"/>
       <c r="Z3" s="10"/>
       <c r="AA3" s="12"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB3" s="12"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -840,8 +849,9 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="14"/>
       <c r="AA4" s="15"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB4" s="15"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -869,8 +879,9 @@
       <c r="Y5" s="12"/>
       <c r="Z5" s="17"/>
       <c r="AA5" s="12"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB5" s="12"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -898,8 +909,9 @@
       <c r="Y6" s="15"/>
       <c r="Z6" s="14"/>
       <c r="AA6" s="15"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB6" s="15"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -927,8 +939,9 @@
       <c r="Y7" s="12"/>
       <c r="Z7" s="17"/>
       <c r="AA7" s="12"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB7" s="12"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -956,8 +969,9 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="14"/>
       <c r="AA8" s="15"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB8" s="15"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -985,8 +999,9 @@
       <c r="Y9" s="12"/>
       <c r="Z9" s="17"/>
       <c r="AA9" s="12"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB9" s="12"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -1014,8 +1029,9 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="14"/>
       <c r="AA10" s="15"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB10" s="15"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1043,8 +1059,9 @@
       <c r="Y11" s="12"/>
       <c r="Z11" s="17"/>
       <c r="AA11" s="12"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB11" s="12"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -1072,8 +1089,9 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="14"/>
       <c r="AA12" s="15"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB12" s="15"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1101,8 +1119,9 @@
       <c r="Y13" s="12"/>
       <c r="Z13" s="17"/>
       <c r="AA13" s="12"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB13" s="12"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -1130,8 +1149,9 @@
       <c r="Y14" s="15"/>
       <c r="Z14" s="14"/>
       <c r="AA14" s="15"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB14" s="15"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -1159,8 +1179,9 @@
       <c r="Y15" s="12"/>
       <c r="Z15" s="17"/>
       <c r="AA15" s="12"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB15" s="12"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -1188,8 +1209,9 @@
       <c r="Y16" s="15"/>
       <c r="Z16" s="14"/>
       <c r="AA16" s="15"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB16" s="15"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -1217,8 +1239,9 @@
       <c r="Y17" s="12"/>
       <c r="Z17" s="17"/>
       <c r="AA17" s="12"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB17" s="12"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -1246,8 +1269,9 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="14"/>
       <c r="AA18" s="15"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB18" s="15"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -1275,8 +1299,9 @@
       <c r="Y19" s="12"/>
       <c r="Z19" s="17"/>
       <c r="AA19" s="12"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB19" s="12"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -1304,8 +1329,9 @@
       <c r="Y20" s="15"/>
       <c r="Z20" s="14"/>
       <c r="AA20" s="15"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB20" s="15"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -1333,8 +1359,9 @@
       <c r="Y21" s="12"/>
       <c r="Z21" s="17"/>
       <c r="AA21" s="12"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB21" s="12"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1362,8 +1389,9 @@
       <c r="Y22" s="15"/>
       <c r="Z22" s="14"/>
       <c r="AA22" s="15"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB22" s="15"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -1391,8 +1419,9 @@
       <c r="Y23" s="12"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="12"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB23" s="12"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -1420,8 +1449,9 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="14"/>
       <c r="AA24" s="15"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB24" s="15"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -1449,8 +1479,9 @@
       <c r="Y25" s="12"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="12"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB25" s="12"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -1478,8 +1509,9 @@
       <c r="Y26" s="15"/>
       <c r="Z26" s="14"/>
       <c r="AA26" s="15"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB26" s="15"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -1507,8 +1539,9 @@
       <c r="Y27" s="12"/>
       <c r="Z27" s="17"/>
       <c r="AA27" s="12"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB27" s="12"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -1536,8 +1569,9 @@
       <c r="Y28" s="15"/>
       <c r="Z28" s="14"/>
       <c r="AA28" s="15"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB28" s="15"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -1565,8 +1599,9 @@
       <c r="Y29" s="12"/>
       <c r="Z29" s="17"/>
       <c r="AA29" s="12"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB29" s="12"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -1594,8 +1629,9 @@
       <c r="Y30" s="15"/>
       <c r="Z30" s="14"/>
       <c r="AA30" s="15"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB30" s="15"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -1623,8 +1659,9 @@
       <c r="Y31" s="12"/>
       <c r="Z31" s="17"/>
       <c r="AA31" s="12"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB31" s="12"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -1652,6 +1689,7 @@
       <c r="Y32" s="15"/>
       <c r="Z32" s="14"/>
       <c r="AA32" s="15"/>
+      <c r="AB32" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C2 A4:C5 A7:C7">

--- a/excel/M2-S3/M2-S3-MEFIM.xlsx
+++ b/excel/M2-S3/M2-S3-MEFIM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyVESPUCE\bulletin-espi\backend\excel\M2-S3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B67DEA-4A0F-4748-BD77-FF8528514796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FC434E-90B5-4671-8B11-8C777E5B9AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33795" yWindow="1995" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>Due Diligence</t>
   </si>
   <si>
-    <t>Code Apprenant</t>
-  </si>
-  <si>
     <t>Nom</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>Appreciations</t>
+  </si>
+  <si>
+    <t>CodeApprenant</t>
   </si>
 </sst>
 </file>
@@ -633,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,25 +648,25 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>1</v>
@@ -684,16 +684,16 @@
         <v>5</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
@@ -707,88 +707,88 @@
     </row>
     <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="W2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="AB2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
